--- a/timesheet/timesheet.xlsx
+++ b/timesheet/timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -28,18 +28,31 @@
     <t xml:space="preserve">Status</t>
   </si>
   <si>
-    <t xml:space="preserve">1400/02/20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">remote</t>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To Hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/02/29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">کارکرد ریموت</t>
+  </si>
+  <si>
+    <t xml:space="preserve">روزانه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -71,8 +84,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -119,21 +133,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -153,86 +175,102 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:B3"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.59"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
+      <c r="A2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2"/>
+      <c r="A3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2"/>
+      <c r="A4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2"/>
+      <c r="A5" s="4"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2"/>
+      <c r="A6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2"/>
+      <c r="A7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2"/>
+      <c r="A8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2"/>
+      <c r="A9" s="4"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2"/>
+      <c r="A10" s="4"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2"/>
+      <c r="A11" s="4"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2"/>
+      <c r="A12" s="4"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2"/>
+      <c r="A13" s="4"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2"/>
+      <c r="A14" s="4"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2"/>
+      <c r="A15" s="4"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2"/>
+      <c r="A16" s="4"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2"/>
+      <c r="A17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2"/>
+      <c r="A18" s="4"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2"/>
+      <c r="A19" s="4"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2"/>
+      <c r="A20" s="4"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2"/>
+      <c r="A21" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/timesheet/timesheet.xlsx
+++ b/timesheet/timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -37,13 +37,16 @@
     <t xml:space="preserve">To Hour</t>
   </si>
   <si>
-    <t xml:space="preserve">1400/02/29</t>
+    <t xml:space="preserve">1400/03/01</t>
   </si>
   <si>
     <t xml:space="preserve">کارکرد ریموت</t>
   </si>
   <si>
     <t xml:space="preserve">روزانه</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1400/03/02</t>
   </si>
 </sst>
 </file>
@@ -178,10 +181,10 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.59"/>
@@ -216,7 +219,15 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>

--- a/timesheet/timesheet.xlsx
+++ b/timesheet/timesheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">روزانه</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1400/03/02</t>
   </si>
 </sst>
 </file>
@@ -181,10 +178,10 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.59"/>
@@ -219,15 +216,8 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4"/>
